--- a/PosReversalNIBBS_API/UploadedFiles/NIBBS REPORT.xlsx
+++ b/PosReversalNIBBS_API/UploadedFiles/NIBBS REPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D5908C-FDAD-45E1-BD46-79F9B9B95213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7945563B-04F3-4554-B048-57F7946CE1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -14241,7 +14241,7 @@
   <dimension ref="A1:I874"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
